--- a/Code/Demo2 measurements.xlsx
+++ b/Code/Demo2 measurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Armandt\Documents\Uni\Year 3\Semester 1\EMK\Practicals\EMK\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCFE4C8-B2D5-4416-A615-6C8783F30B3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3E1ABC-4691-4975-A2C1-F285A723199B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{6B15A976-0C98-4A10-A26C-B3A263368DC6}"/>
+    <workbookView xWindow="2112" yWindow="1188" windowWidth="17280" windowHeight="8964" xr2:uid="{6B15A976-0C98-4A10-A26C-B3A263368DC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,7 +485,7 @@
         <v>4.5</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D4">
         <v>3.05</v>
@@ -597,7 +597,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>209.1</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
